--- a/Noida_SDET/Data/TestData.xlsx
+++ b/Noida_SDET/Data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\repository6\Noida_SDET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD691CA4-39DD-4E6D-9E24-28899935F21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60901BFF-D710-4E6F-949D-BFB7CB5EF5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E45DB366-710C-433E-92EB-9EC3EF9FEE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>TC_ID</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>Banking</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182346A0-083B-49CB-8207-B66A981E65DE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,6 +506,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
